--- a/output/table2.xlsx
+++ b/output/table2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Intact, n = 109,467</t>
   </si>
@@ -25,28 +25,31 @@
     <t>Overweight/obese</t>
   </si>
   <si>
+    <t>Outcome events, n</t>
+  </si>
+  <si>
     <t>Total years of observation</t>
   </si>
   <si>
-    <t>Crude outcome events, n (%)</t>
-  </si>
-  <si>
-    <t>24,405 (22.3)</t>
-  </si>
-  <si>
-    <t>17,852 (39.0)</t>
-  </si>
-  <si>
-    <t>Crude outcome incidence rates per 1,000 years of observation</t>
+    <t>Crude incidence rates per 1,000 years of observation</t>
+  </si>
+  <si>
+    <t>Crude incidence rate ratio (95% CI)</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>1.91 (1.87, 1.95)</t>
   </si>
   <si>
     <t>Obese</t>
   </si>
   <si>
-    <t>1,208 (1.1)</t>
-  </si>
-  <si>
-    <t>1,920 (4.2)</t>
+    <t>Outcome events, n (%)</t>
+  </si>
+  <si>
+    <t>3.49 (3.25, 3.75)</t>
   </si>
 </sst>
 </file>
@@ -531,13 +534,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -875,110 +877,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>248109</v>
-      </c>
-      <c r="C3" s="1">
-        <v>95039</v>
+      <c r="B3" s="2">
+        <v>24405</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17852</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="2">
+        <v>248109</v>
+      </c>
+      <c r="C4" s="2">
+        <v>95039</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>98.4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>187.8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>289543</v>
-      </c>
-      <c r="C7" s="1">
-        <v>131839</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1208</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1920</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>289543</v>
+      </c>
+      <c r="C9" s="2">
+        <v>131839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>4.2</v>
-      </c>
-      <c r="C9">
-        <v>14.6</v>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>